--- a/mysql事务.xlsx
+++ b/mysql事务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="事务前轴" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +123,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -596,48 +589,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,97 +643,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1194,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/mysql事务.xlsx
+++ b/mysql事务.xlsx
@@ -4,19 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="事务前轴" sheetId="2" r:id="rId1"/>
     <sheet name="事务测试RC1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="锁" sheetId="3" r:id="rId3"/>
+    <sheet name="死锁测试" sheetId="4" r:id="rId4"/>
+    <sheet name="死锁测试2" sheetId="5" r:id="rId5"/>
+    <sheet name="死锁测试RR" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>查看事务级别</t>
   </si>
@@ -99,11 +115,45 @@
   <si>
     <t>select * from  `test`;有数据</t>
   </si>
+  <si>
+    <t xml:space="preserve">CREATE INDEX test_value_IDX USING BTREE ON mytest.test (value);
+</t>
+  </si>
+  <si>
+    <t>UPDATE mytest.students SET  phone='1' WHERE name='admin';</t>
+  </si>
+  <si>
+    <t>UPDATE mytest.students SET  phone='1' WHERE name='root';</t>
+  </si>
+  <si>
+    <t>set session transaction isolation level read uncommitted</t>
+  </si>
+  <si>
+    <t>update t1 set b = b + 100 where id = 5;</t>
+  </si>
+  <si>
+    <t>update t1 set b = b + 200 where id = 10;</t>
+  </si>
+  <si>
+    <t>update t1 set b = b + 222 where id = 5;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>update t1 set b = b + 111 where id = 10;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -125,34 +175,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -166,14 +188,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +227,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,7 +292,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,49 +328,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,121 +466,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +533,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +566,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,148 +639,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,52 +800,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -817,6 +867,56 @@
     <tableColumn id="3" name="事务2"/>
     <tableColumn id="5" name="无事务3"/>
     <tableColumn id="4" name="无事务4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:E17" totalsRowShown="0">
+  <autoFilter ref="A1:E17"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="时间轴"/>
+    <tableColumn id="2" name="事务1"/>
+    <tableColumn id="3" name="事务2"/>
+    <tableColumn id="4" name="无事务3"/>
+    <tableColumn id="5" name="无事务4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="时间轴"/>
+    <tableColumn id="2" name="事务1"/>
+    <tableColumn id="3" name="事务2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_45" displayName="表1_45" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="时间轴"/>
+    <tableColumn id="2" name="事务1"/>
+    <tableColumn id="3" name="事务2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_456" displayName="表1_456" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="时间轴"/>
+    <tableColumn id="2" name="事务1"/>
+    <tableColumn id="3" name="事务2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1112,7 +1212,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1193,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1403,16 +1503,700 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="50.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="34.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="51.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="57.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="24" ht="43.2" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="57.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="77.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="57.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="77.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="57.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="77.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>